--- a/docs/Campaign_01_adversaries.xlsx
+++ b/docs/Campaign_01_adversaries.xlsx
@@ -349,63 +349,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>20</v>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Campaign_01_adversaries.xlsx
+++ b/docs/Campaign_01_adversaries.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,20 +362,20 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -383,34 +383,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
